--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150848.8654931387</v>
+        <v>155060.8232645094</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="F4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="G4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="H4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="I4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="J4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="K4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="L4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="M4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="N4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="O4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="P4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26388.03836741586</v>
+        <v>-25694.43633981264</v>
       </c>
       <c r="C6" t="n">
-        <v>-26388.03836741592</v>
+        <v>-25694.4363398127</v>
       </c>
       <c r="D6" t="n">
-        <v>-26388.03836741586</v>
+        <v>-25694.4363398127</v>
       </c>
       <c r="E6" t="n">
-        <v>-75734.3978561847</v>
+        <v>-75323.36573662492</v>
       </c>
       <c r="F6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
       <c r="G6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
       <c r="H6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
       <c r="I6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
       <c r="J6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
       <c r="K6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
       <c r="L6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
       <c r="M6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
       <c r="N6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
       <c r="O6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
       <c r="P6" t="n">
-        <v>57365.60214381535</v>
+        <v>57776.63426337508</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155060.8232645094</v>
+        <v>168787.1814019275</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="F4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="H4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="I4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="J4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="K4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="L4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="M4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="N4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="O4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="P4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25694.43633981264</v>
+        <v>-25694.43633981272</v>
       </c>
       <c r="C6" t="n">
-        <v>-25694.4363398127</v>
+        <v>-25694.43633981272</v>
       </c>
       <c r="D6" t="n">
-        <v>-25694.4363398127</v>
+        <v>-25694.43633981272</v>
       </c>
       <c r="E6" t="n">
-        <v>-75323.36573662492</v>
+        <v>-75323.36573662497</v>
       </c>
       <c r="F6" t="n">
         <v>57776.63426337508</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168787.1814019275</v>
+        <v>85001.77964030251</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622972</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622969</v>
       </c>
       <c r="D2" t="n">
         <v>471083.894762297</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25694.43633981272</v>
+        <v>-25738.57211849373</v>
       </c>
       <c r="C6" t="n">
-        <v>-25694.43633981272</v>
+        <v>-25738.57211849396</v>
       </c>
       <c r="D6" t="n">
-        <v>-25694.43633981272</v>
+        <v>-25738.57211849385</v>
       </c>
       <c r="E6" t="n">
-        <v>-75323.36573662497</v>
+        <v>-90133.38257573887</v>
       </c>
       <c r="F6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
       <c r="G6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
       <c r="H6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
       <c r="I6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
       <c r="J6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
       <c r="K6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
       <c r="L6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
       <c r="M6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
       <c r="N6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
       <c r="O6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
       <c r="P6" t="n">
-        <v>57776.63426337508</v>
+        <v>42966.61742426117</v>
       </c>
     </row>
   </sheetData>
